--- a/Employee/Position_Data.xlsx
+++ b/Employee/Position_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fdbb21a5dbde31e1/Documents/UVic/CSC 370/Database Project/Employee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF48F763-729A-45BD-ABFA-F8326AEC86D0}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC1048F3C95B666E5ADE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{706F8413-02D7-4E22-BECC-B3F7AE487510}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -415,7 +415,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,7 +431,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
